--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_26_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_26_45.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77114.74228611399</v>
+        <v>5151068.340509112</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77114.74228611399</v>
+        <v>5151068.340509112</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960995602.137458</v>
+        <v>37831000.15626606</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11950.61087071151</v>
+        <v>1143503.928071885</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21346.0827871239</v>
+        <v>1845326.178191903</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30736.54664879331</v>
+        <v>2547148.428311922</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40329.90047599848</v>
+        <v>3248267.254781151</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49923.25430320366</v>
+        <v>3949386.081250379</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>59516.60518009109</v>
+        <v>4650504.907719607</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69109.95900729625</v>
+        <v>5351623.734188832</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>78703.30988418371</v>
+        <v>6052742.560658056</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88296.6637113889</v>
+        <v>6753861.387127281</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97890.0175385941</v>
+        <v>7454980.213596507</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>107483.3684154816</v>
+        <v>8156099.040065732</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>117076.719292369</v>
+        <v>8857217.866534961</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>126670.0731195742</v>
+        <v>9558336.693004197</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>136263.4269467794</v>
+        <v>10259455.51947343</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>145856.7807739847</v>
+        <v>10960574.34594267</v>
       </c>
     </row>
   </sheetData>
